--- a/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>152581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148144</v>
+        <v>147905</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>154287</v>
@@ -750,7 +750,7 @@
         <v>0.9889413730254729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9601821779392341</v>
+        <v>0.9586335476715582</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>134233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130357</v>
+        <v>130827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136418</v>
+        <v>136738</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9677293538648176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9397879695856722</v>
+        <v>0.9431740187607294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9834848915612515</v>
+        <v>0.9857906630388202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>375</v>
@@ -783,19 +783,19 @@
         <v>286814</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>281967</v>
+        <v>282089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>289580</v>
+        <v>290000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9788992772700374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9623593980597073</v>
+        <v>0.9627741717191963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9883413051027506</v>
+        <v>0.9897740399656061</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6143</v>
+        <v>6382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01105862697452701</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03981782206076689</v>
+        <v>0.04136645232844254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>3967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1919</v>
+        <v>1517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7354</v>
+        <v>7183</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02859837899397043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01383390796865033</v>
+        <v>0.01093946060747021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05301605081425999</v>
+        <v>0.05178516164054869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>5673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2946</v>
+        <v>2534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10630</v>
+        <v>10253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01936221504748836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01005523577615126</v>
+        <v>0.008647214539985732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03628045244985847</v>
+        <v>0.03499484270910709</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3202</v>
+        <v>2500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00367226714121189</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02308540846102958</v>
+        <v>0.0180201193732082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2568</v>
+        <v>2838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001738507682474211</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008765452084940995</v>
+        <v>0.009685446260222032</v>
       </c>
     </row>
     <row r="8">
@@ -1068,19 +1068,19 @@
         <v>193856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>177421</v>
+        <v>177212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>204784</v>
+        <v>204326</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8742789331932077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8001591229887731</v>
+        <v>0.7992154774793438</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9235646246375329</v>
+        <v>0.9214987979100612</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>283</v>
@@ -1089,19 +1089,19 @@
         <v>220691</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>208480</v>
+        <v>209025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>229183</v>
+        <v>228784</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.8773998634536065</v>
+        <v>0.8773998634536062</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8288523206214186</v>
+        <v>0.8310191798882682</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9111631240286748</v>
+        <v>0.9095762094290789</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>424</v>
@@ -1110,19 +1110,19 @@
         <v>414546</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>397143</v>
+        <v>395339</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>427964</v>
+        <v>428388</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8759376452217706</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8391655109735247</v>
+        <v>0.8353525839780378</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9042902423253172</v>
+        <v>0.9051849484581338</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>23855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14020</v>
+        <v>13831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41291</v>
+        <v>39622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1075829792926205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06322753074658645</v>
+        <v>0.06237485307529857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1862225331205902</v>
+        <v>0.1786939499139927</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1160,19 +1160,19 @@
         <v>22188</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14899</v>
+        <v>15355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34188</v>
+        <v>32255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08821414179939517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05923365607741547</v>
+        <v>0.06104523072305178</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1359207360256963</v>
+        <v>0.1282343881513805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1181,19 +1181,19 @@
         <v>46043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33493</v>
+        <v>33311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63162</v>
+        <v>63993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09728882945628627</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0707704534729954</v>
+        <v>0.07038676705356949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1334616657930404</v>
+        <v>0.1352179080522836</v>
       </c>
     </row>
     <row r="11">
@@ -1210,19 +1210,19 @@
         <v>3027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8503</v>
+        <v>7695</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01365188503088338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004101432859022008</v>
+        <v>0.004166054568996645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03834801673975928</v>
+        <v>0.03470310246850688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1231,19 +1231,19 @@
         <v>6722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3329</v>
+        <v>3482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12740</v>
+        <v>12324</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.02672648753346888</v>
+        <v>0.02672648753346887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01323578539702122</v>
+        <v>0.0138440275822792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05065184670187346</v>
+        <v>0.04899732345275404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1252,19 +1252,19 @@
         <v>9750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5168</v>
+        <v>5065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16548</v>
+        <v>17026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02060077482662886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01091925561626702</v>
+        <v>0.01070190471096795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03496525414939108</v>
+        <v>0.03597666090737401</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004486202483288487</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1302,19 +1302,19 @@
         <v>1927</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5097</v>
+        <v>5326</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00765950721352962</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002325425983515435</v>
+        <v>0.002356041758232923</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02026245699729344</v>
+        <v>0.02117291139547758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1323,19 +1323,19 @@
         <v>2921</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7039</v>
+        <v>7416</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.006172750495314312</v>
+        <v>0.006172750495314314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001287465134180746</v>
+        <v>0.001554032791161508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01487326764124593</v>
+        <v>0.01567062202086137</v>
       </c>
     </row>
     <row r="13">
@@ -1427,19 +1427,19 @@
         <v>88954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82689</v>
+        <v>81727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91844</v>
+        <v>91828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9559438066408584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.888616806005523</v>
+        <v>0.878272994436154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.986994774694083</v>
+        <v>0.9868260873252563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>201</v>
@@ -1448,19 +1448,19 @@
         <v>132531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125772</v>
+        <v>126605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137435</v>
+        <v>137488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9056244546067896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.859438685947845</v>
+        <v>0.8651288286537583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9391340874384241</v>
+        <v>0.9394973945292042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>310</v>
@@ -1469,19 +1469,19 @@
         <v>221485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213704</v>
+        <v>212851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>227628</v>
+        <v>227496</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9251836552793072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8926794797924779</v>
+        <v>0.8891173007400681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.950843777022531</v>
+        <v>0.9502934725587786</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>3440</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10309</v>
+        <v>10856</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03696880624528601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006274323601278819</v>
+        <v>0.006269177357955995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1107803220677856</v>
+        <v>0.1166624200934354</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1519,19 +1519,19 @@
         <v>7227</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3653</v>
+        <v>3926</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11961</v>
+        <v>12310</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04938366180192715</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02496282084234942</v>
+        <v>0.0268273070560853</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08173006452530152</v>
+        <v>0.08412101366869537</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1540,19 +1540,19 @@
         <v>10667</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5758</v>
+        <v>6363</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17202</v>
+        <v>18530</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04455799053755439</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02405096973436917</v>
+        <v>0.02657882573358926</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07185405281059355</v>
+        <v>0.07740500972172346</v>
       </c>
     </row>
     <row r="16">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4300</v>
+        <v>4006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008280479449745434</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0293856518104363</v>
+        <v>0.02737119428654674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3954</v>
+        <v>3706</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.005061845809300833</v>
+        <v>0.005061845809300834</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01651622048196869</v>
+        <v>0.01548209997532557</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007087387113855551</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1653,19 +1653,19 @@
         <v>5372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2508</v>
+        <v>2562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9514</v>
+        <v>10207</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0367114041415376</v>
+        <v>0.03671140414153759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01713583076126857</v>
+        <v>0.01750816826790179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06501220889348795</v>
+        <v>0.069749644403219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1674,19 +1674,19 @@
         <v>6032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2643</v>
+        <v>2869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10983</v>
+        <v>11148</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02519650837383752</v>
+        <v>0.02519650837383753</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01104176508090065</v>
+        <v>0.01198346908177615</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04587598211069644</v>
+        <v>0.04656553475675515</v>
       </c>
     </row>
     <row r="18">
@@ -1778,19 +1778,19 @@
         <v>161728</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>151253</v>
+        <v>150297</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>167958</v>
+        <v>168526</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.927022772646047</v>
+        <v>0.9270227726460469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8669807635909936</v>
+        <v>0.8614966371951185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9627296695766175</v>
+        <v>0.9659847658570451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>252</v>
@@ -1799,19 +1799,19 @@
         <v>185641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178305</v>
+        <v>178595</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>191306</v>
+        <v>191201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9212585017523353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8848532938779023</v>
+        <v>0.8862918443404013</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9493720462786358</v>
+        <v>0.9488519296858116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -1820,19 +1820,19 @@
         <v>347369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>336226</v>
+        <v>335449</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>355903</v>
+        <v>356756</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9239332888913326</v>
+        <v>0.9239332888913325</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8942946819404565</v>
+        <v>0.8922265699236352</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9466315524918496</v>
+        <v>0.9488996664091617</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>10281</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4443</v>
+        <v>4049</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20657</v>
+        <v>21713</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05893065205724482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02546675332356003</v>
+        <v>0.02320720682021189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1184055261751488</v>
+        <v>0.1244590823360414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1870,19 +1870,19 @@
         <v>15235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10012</v>
+        <v>9606</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22831</v>
+        <v>22303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07560481811096127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04968485049471989</v>
+        <v>0.04767105430125376</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1132983708477451</v>
+        <v>0.11067998639965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -1891,19 +1891,19 @@
         <v>25516</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16835</v>
+        <v>16944</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36024</v>
+        <v>37601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06786752648529536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04477668089724154</v>
+        <v>0.04506824323175267</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09581593836029444</v>
+        <v>0.1000115614799978</v>
       </c>
     </row>
     <row r="21">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3614</v>
+        <v>3188</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004127137192258838</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02071596266428299</v>
+        <v>0.0182758293920564</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3410</v>
+        <v>3574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003136680136703423</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01692082577853011</v>
+        <v>0.01773710454046421</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4463</v>
+        <v>4816</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003596280638272288</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01187081340813395</v>
+        <v>0.01280938807829829</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004602903985099819</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>79732</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74207</v>
+        <v>74002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82368</v>
+        <v>82543</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9444565517723148</v>
+        <v>0.9444565517723146</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8790107190494276</v>
+        <v>0.8765879008322632</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9756859000298594</v>
+        <v>0.9777547240450124</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>153</v>
@@ -2150,19 +2150,19 @@
         <v>73395</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66335</v>
+        <v>66465</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76705</v>
+        <v>76665</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9245498003105862</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8356097251930276</v>
+        <v>0.8372508525754736</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9662386420149742</v>
+        <v>0.9657393067065408</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>255</v>
@@ -2171,19 +2171,19 @@
         <v>153127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145150</v>
+        <v>144410</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>157784</v>
+        <v>157586</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9348091382833219</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.886111962371664</v>
+        <v>0.8815917101770114</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9632399516529302</v>
+        <v>0.962031062303543</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>3426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1237</v>
+        <v>773</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8851</v>
+        <v>9323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04058446276114468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01465046311143641</v>
+        <v>0.00915456215365037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1048434895135821</v>
+        <v>0.1104352935412763</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2221,19 +2221,19 @@
         <v>4300</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12510</v>
+        <v>11634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05416231429763081</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01793434627693276</v>
+        <v>0.01800269824736467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1575830316301977</v>
+        <v>0.146552956726279</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2242,19 +2242,19 @@
         <v>7726</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3727</v>
+        <v>3569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16088</v>
+        <v>16325</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04716470003976237</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02275454119683267</v>
+        <v>0.02178641816125737</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09821409097307358</v>
+        <v>0.09966004103892703</v>
       </c>
     </row>
     <row r="26">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4359</v>
+        <v>4094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0149589854665405</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05163510809924208</v>
+        <v>0.04849440273820931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2264</v>
+        <v>2039</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005440090348815042</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02852186647289991</v>
+        <v>0.02568382388093559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2313,19 +2313,19 @@
         <v>1695</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4815</v>
+        <v>5212</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01034584116041865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002645671551110041</v>
+        <v>0.002652523940930817</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02939691245426533</v>
+        <v>0.03181954786360471</v>
       </c>
     </row>
     <row r="27">
@@ -2355,19 +2355,19 @@
         <v>1258</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3289</v>
+        <v>3418</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01584779504296783</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004540074361631852</v>
+        <v>0.004693831319598666</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04143328542684587</v>
+        <v>0.04305025911818153</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2376,19 +2376,19 @@
         <v>1258</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3801</v>
+        <v>3965</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.00768032051649734</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002257967794860918</v>
+        <v>0.002271613073802984</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02320220633694473</v>
+        <v>0.02420521133832278</v>
       </c>
     </row>
     <row r="28">
@@ -2480,19 +2480,19 @@
         <v>125046</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121831</v>
+        <v>121560</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>126374</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9858067986388324</v>
+        <v>0.9858067986388322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.960463970132462</v>
+        <v>0.9583242711915786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9962776575871362</v>
+        <v>0.9962758840944882</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -2501,19 +2501,19 @@
         <v>107507</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>103142</v>
+        <v>103124</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>110440</v>
+        <v>110402</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9453989853242795</v>
+        <v>0.9453989853242791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9070181955549682</v>
+        <v>0.9068581464050141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9711885871368247</v>
+        <v>0.9708548765639313</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>362</v>
@@ -2522,19 +2522,19 @@
         <v>232553</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>227601</v>
+        <v>227263</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>235561</v>
+        <v>235908</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9667056409898557</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9461216570934505</v>
+        <v>0.9447188112231637</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9792104477877391</v>
+        <v>0.9806533535109229</v>
       </c>
     </row>
     <row r="30">
@@ -2554,16 +2554,16 @@
         <v>472</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5015</v>
+        <v>5286</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01419320136116765</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003722342412863957</v>
+        <v>0.003724115905511688</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03953602986753785</v>
+        <v>0.04167572880842162</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2572,19 +2572,19 @@
         <v>5838</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3052</v>
+        <v>2965</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10248</v>
+        <v>10194</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05133874705671318</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02683668831729889</v>
+        <v>0.026070007056511</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09012310266499589</v>
+        <v>0.08964317471019695</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2593,19 +2593,19 @@
         <v>7638</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4531</v>
+        <v>4424</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12661</v>
+        <v>12778</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03175225408111136</v>
+        <v>0.03175225408111137</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01883696356353266</v>
+        <v>0.01839146552958452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.052630615332096</v>
+        <v>0.05311747591907517</v>
       </c>
     </row>
     <row r="31">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2483</v>
+        <v>1941</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003262267619007504</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02183941698076416</v>
+        <v>0.0170662831396863</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1845</v>
+        <v>2196</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001542104929032912</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007671604101050249</v>
+        <v>0.009128964485094601</v>
       </c>
     </row>
     <row r="32">
@@ -2807,19 +2807,19 @@
         <v>329617</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>316556</v>
+        <v>317323</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>339849</v>
+        <v>338439</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9342686597651039</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.897248643890171</v>
+        <v>0.8994244075940686</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9632730962299103</v>
+        <v>0.9592765571764689</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>394</v>
@@ -2828,19 +2828,19 @@
         <v>318025</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>304356</v>
+        <v>304803</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>327854</v>
+        <v>329026</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8928790542540262</v>
+        <v>0.8928790542540265</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8545025919598241</v>
+        <v>0.8557589924404903</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9204752181121213</v>
+        <v>0.9237668860920013</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>661</v>
@@ -2849,19 +2849,19 @@
         <v>647641</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>631478</v>
+        <v>630198</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>662221</v>
+        <v>662603</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9134754246467924</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8906779526259687</v>
+        <v>0.8888717253038623</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9340396676556608</v>
+        <v>0.9345779174887647</v>
       </c>
     </row>
     <row r="35">
@@ -2878,19 +2878,19 @@
         <v>19641</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11328</v>
+        <v>11375</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33450</v>
+        <v>31793</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0556716485330865</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03210870137453569</v>
+        <v>0.03224226265086297</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09481148109311723</v>
+        <v>0.09011334116862979</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>32</v>
@@ -2899,19 +2899,19 @@
         <v>28562</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20234</v>
+        <v>19744</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>40311</v>
+        <v>39984</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08019136633975066</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05680734991402186</v>
+        <v>0.05543150258726107</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1131750372823639</v>
+        <v>0.1122578746757009</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -2920,19 +2920,19 @@
         <v>48204</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>34652</v>
+        <v>34884</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63120</v>
+        <v>65315</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06798981999408683</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04887547556675274</v>
+        <v>0.04920299150076886</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08902808112749706</v>
+        <v>0.09212405666928444</v>
       </c>
     </row>
     <row r="36">
@@ -2949,19 +2949,19 @@
         <v>3549</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1065</v>
+        <v>1140</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9314</v>
+        <v>9437</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0100596917018096</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003019594440848262</v>
+        <v>0.003230893769723076</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02639987258539563</v>
+        <v>0.02674732415500979</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2970,19 +2970,19 @@
         <v>5835</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2139</v>
+        <v>2118</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14821</v>
+        <v>15391</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01638119822835414</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006006133534766666</v>
+        <v>0.005947288682072842</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04161209318611808</v>
+        <v>0.04321009877766871</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -2991,19 +2991,19 @@
         <v>9384</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4659</v>
+        <v>4724</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19153</v>
+        <v>21618</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01323547871126059</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006571210654432974</v>
+        <v>0.006663346074546344</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0270150118305427</v>
+        <v>0.03049188139300817</v>
       </c>
     </row>
     <row r="37">
@@ -3033,19 +3033,19 @@
         <v>3757</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10805</v>
+        <v>10685</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01054838117786881</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003704714868642255</v>
+        <v>0.003693809949449838</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03033528532887778</v>
+        <v>0.02999844395294509</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3054,19 +3054,19 @@
         <v>3757</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>722</v>
+        <v>1345</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10130</v>
+        <v>10315</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.005299276647860171</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001018873934610752</v>
+        <v>0.001897456483443797</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01428776396627045</v>
+        <v>0.01454853322141697</v>
       </c>
     </row>
     <row r="38">
@@ -3158,19 +3158,19 @@
         <v>340361</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>330799</v>
+        <v>329922</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>348111</v>
+        <v>347564</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9436976610540444</v>
+        <v>0.9436976610540446</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9171862071317005</v>
+        <v>0.9147547975103247</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9651857776501728</v>
+        <v>0.9636692284184528</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>476</v>
@@ -3179,19 +3179,19 @@
         <v>377222</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>366013</v>
+        <v>365774</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>385732</v>
+        <v>385549</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.9268212348872775</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.8992822518510788</v>
+        <v>0.8986936191647787</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9477295404483681</v>
+        <v>0.9472798837989668</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>789</v>
@@ -3200,19 +3200,19 @@
         <v>717582</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>701568</v>
+        <v>702454</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>729077</v>
+        <v>729113</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.9347500973504508</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.9138891619125139</v>
+        <v>0.9150433910762813</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9497227869190323</v>
+        <v>0.9497709058948169</v>
       </c>
     </row>
     <row r="40">
@@ -3229,19 +3229,19 @@
         <v>16591</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9959</v>
+        <v>9866</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26037</v>
+        <v>25820</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04600224112992254</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02761162337691825</v>
+        <v>0.02735416619312495</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07219126041539678</v>
+        <v>0.07158895465517781</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -3250,19 +3250,19 @@
         <v>26640</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>18380</v>
+        <v>19292</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>38330</v>
+        <v>38409</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06545319704393546</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04515971186699509</v>
+        <v>0.04740031174068662</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09417462207048539</v>
+        <v>0.09437027396384137</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>52</v>
@@ -3271,19 +3271,19 @@
         <v>43231</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>32992</v>
+        <v>32974</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>58949</v>
+        <v>57635</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05631477207792267</v>
+        <v>0.05631477207792268</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04297709823848965</v>
+        <v>0.04295332777456856</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07678912670934945</v>
+        <v>0.07507691284987761</v>
       </c>
     </row>
     <row r="41">
@@ -3300,19 +3300,19 @@
         <v>3715</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12666</v>
+        <v>10495</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01030009781603294</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002216290691408852</v>
+        <v>0.002147301802844109</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03511932928695579</v>
+        <v>0.0290984217863506</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3324,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5965</v>
+        <v>6062</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.004142563909081124</v>
+        <v>0.004142563909081123</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01465639431415549</v>
+        <v>0.01489517397908106</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3342,19 +3342,19 @@
         <v>5401</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1805</v>
+        <v>1822</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12385</v>
+        <v>13092</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007035489163403475</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002351515012412279</v>
+        <v>0.002373167754578644</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01613341999865795</v>
+        <v>0.01705435807944121</v>
       </c>
     </row>
     <row r="42">
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5701</v>
+        <v>4778</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.003583004159705905</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01400654542233281</v>
+        <v>0.01174010814927048</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5151</v>
+        <v>5091</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.001899641408223072</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.006709445909215053</v>
+        <v>0.00663217921393301</v>
       </c>
     </row>
     <row r="43">
@@ -3509,19 +3509,19 @@
         <v>1471874</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1445879</v>
+        <v>1448709</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1493476</v>
+        <v>1491039</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9385311162644576</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9219558638676952</v>
+        <v>0.9237599621179591</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9523056719611773</v>
+        <v>0.9507513844425132</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2171</v>
@@ -3530,19 +3530,19 @@
         <v>1549245</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1528154</v>
+        <v>1526509</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1569680</v>
+        <v>1568713</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9143465855549167</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9018989491355415</v>
+        <v>0.900928100094848</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9264071360219008</v>
+        <v>0.9258362742916799</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3548</v>
@@ -3551,19 +3551,19 @@
         <v>3021119</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2987213</v>
+        <v>2984678</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3052386</v>
+        <v>3047981</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.9259714882021677</v>
+        <v>0.9259714882021675</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.915579187894118</v>
+        <v>0.9148023091177681</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9355549274078504</v>
+        <v>0.934204691396459</v>
       </c>
     </row>
     <row r="45">
@@ -3580,19 +3580,19 @@
         <v>80741</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>61348</v>
+        <v>63603</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>104988</v>
+        <v>104212</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0514841770901177</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03911832297605757</v>
+        <v>0.04055619688477109</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06694512663851071</v>
+        <v>0.06645007874894035</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>158</v>
@@ -3601,19 +3601,19 @@
         <v>113957</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>96501</v>
+        <v>96329</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>133926</v>
+        <v>133303</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.06725621152568775</v>
+        <v>0.06725621152568774</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.05695392667547351</v>
+        <v>0.05685200410911942</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.07904137035679405</v>
+        <v>0.07867371195197699</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>225</v>
@@ -3622,19 +3622,19 @@
         <v>194698</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>168572</v>
+        <v>170329</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>227900</v>
+        <v>227881</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.05967498668967053</v>
+        <v>0.05967498668967052</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.05166729678202778</v>
+        <v>0.05220588615959064</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.06985120746909952</v>
+        <v>0.06984535715065331</v>
       </c>
     </row>
     <row r="46">
@@ -3651,19 +3651,19 @@
         <v>12274</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6401</v>
+        <v>6899</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>21448</v>
+        <v>21505</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007826418029126472</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004081313872229647</v>
+        <v>0.004399390581105419</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01367621783378804</v>
+        <v>0.01371284435111001</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>22</v>
@@ -3672,19 +3672,19 @@
         <v>16890</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10951</v>
+        <v>10456</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>26144</v>
+        <v>27034</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.009968193271505485</v>
+        <v>0.009968193271505483</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.006463212104777779</v>
+        <v>0.00617124766526135</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01542998008429545</v>
+        <v>0.01595509415741226</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>34</v>
@@ -3693,19 +3693,19 @@
         <v>29164</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20337</v>
+        <v>20330</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>42330</v>
+        <v>42091</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.00893869516033783</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006233412684819354</v>
+        <v>0.006231014871919473</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01297415438775246</v>
+        <v>0.01290088504425256</v>
       </c>
     </row>
     <row r="47">
@@ -3722,19 +3722,19 @@
         <v>3385</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>21</v>
@@ -3743,19 +3743,19 @@
         <v>14282</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>25</v>
@@ -3764,19 +3764,19 @@
         <v>17667</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="48">
